--- a/1차_가공/연세대학교 미래캠퍼스 22년 1학기 1차 가공 완료.xlsx
+++ b/1차_가공/연세대학교 미래캠퍼스 22년 1학기 1차 가공 완료.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15314" uniqueCount="4233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15312" uniqueCount="4233">
   <si>
     <t>대학교명</t>
   </si>
@@ -13070,7 +13070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1622"/>
+  <dimension ref="A1:L1621"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -71950,17 +71950,6 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="1622" spans="1:9">
-      <c r="A1622" s="1">
-        <v>1620</v>
-      </c>
-      <c r="B1622" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1622" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1차_가공/연세대학교 미래캠퍼스 22년 1학기 1차 가공 완료.xlsx
+++ b/1차_가공/연세대학교 미래캠퍼스 22년 1학기 1차 가공 완료.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15314" uniqueCount="4233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15312" uniqueCount="4233">
   <si>
     <t>대학교명</t>
   </si>
@@ -12493,10 +12493,10 @@
     <t>백529(백327)</t>
   </si>
   <si>
-    <t>백121(의전103,104)</t>
-  </si>
-  <si>
-    <t>백121/의전103,104</t>
+    <t>백121(의전1034)</t>
+  </si>
+  <si>
+    <t>백121/의전1034</t>
   </si>
   <si>
     <t>백121(백529)</t>
@@ -13070,7 +13070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1622"/>
+  <dimension ref="A1:L1621"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -71950,17 +71950,6 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="1622" spans="1:9">
-      <c r="A1622" s="1">
-        <v>1620</v>
-      </c>
-      <c r="B1622" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1622" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
